--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregMilburn\Documents\hydroxyproline_assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{29BE8100-CF4B-4492-AABA-BC87BC4CE467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486A2A49-E309-4C3E-AFE9-A9829CE4D2CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C82E3-0D76-4F8F-926B-B6E1C894B58E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,14 +41,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -456,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,14 +1012,14 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="9"/>
@@ -2592,20 +2592,22 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="14" customWidth="1"/>
+    <col min="4" max="5" width="16" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
+    <col min="7" max="9" width="16" style="14" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2621,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2633,7 +2635,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2684,7 +2686,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="H8" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2692,7 +2694,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1">
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="H9" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2700,7 +2702,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1">
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="H10" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2708,7 +2710,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="H11" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2716,7 +2718,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="H12" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2724,7 +2726,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="H13" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2732,7 +2734,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="H14" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2740,7 +2742,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="H15" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2748,7 +2750,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="H16" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2756,7 +2758,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="H17" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="H18" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2772,7 +2774,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="H19" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2780,7 +2782,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="H20" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2788,7 +2790,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="H21" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="H22" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2804,7 +2806,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="H23" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2812,7 +2814,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
+    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="H24" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2820,7 +2822,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="H25" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2828,7 +2830,7 @@
       </c>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -2853,8 +2855,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2869,9 +2871,9 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,7 +2939,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3003,7 +3005,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3059,7 +3061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -3069,7 +3071,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -3135,7 +3137,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -3201,7 +3203,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3278,7 +3280,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3290,7 +3292,7 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3404,8 +3406,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="15" thickBot="1"/>
-    <row r="18" spans="9:12" ht="15" thickBot="1">
+    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="38" t="s">
         <v>118</v>
       </c>
@@ -3413,7 +3415,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="9:12">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="2" t="s">
         <v>119</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="9:12">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" s="5" t="s">
         <v>121</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="9:12" ht="28.9">
+    <row r="21" spans="9:12" ht="30" x14ac:dyDescent="0.25">
       <c r="I21" s="5" t="s">
         <v>123</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="9:12" ht="28.9">
+    <row r="22" spans="9:12" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="5" t="s">
         <v>125</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="9:12" ht="29.45" thickBot="1">
+    <row r="23" spans="9:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="8" t="s">
         <v>127</v>
       </c>
@@ -3488,15 +3490,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -3745,14 +3738,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6050C139-82A9-428E-AB65-1289DFE5D558}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6050C139-82A9-428E-AB65-1289DFE5D558}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregMilburn\Documents\hydroxyproline_assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C82E3-0D76-4F8F-926B-B6E1C894B58E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57A59C2-CCD8-4069-A9EF-94F235296836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="14760" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,14 +41,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -456,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -848,11 +848,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,15 +1008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,6 +1052,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,14 +1114,14 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2269,7 +2371,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="9"/>
@@ -2589,88 +2691,86 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="14" customWidth="1"/>
-    <col min="7" max="9" width="16" style="14" customWidth="1"/>
+    <col min="4" max="9" width="16" style="14" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="G2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="G2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2686,7 +2786,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="21"/>
       <c r="H8" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2694,7 +2794,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="H9" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2702,7 +2802,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="22.5" customHeight="1">
       <c r="A10" s="21"/>
       <c r="H10" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2710,7 +2810,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="H11" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2718,7 +2818,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="21"/>
       <c r="H12" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2726,7 +2826,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="H13" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2734,7 +2834,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="21"/>
       <c r="H14" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2742,7 +2842,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="21"/>
       <c r="H15" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2750,7 +2850,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="21"/>
       <c r="H16" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2758,7 +2858,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="21"/>
       <c r="H17" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2766,7 +2866,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="21"/>
       <c r="H18" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2774,7 +2874,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="21"/>
       <c r="H19" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2782,7 +2882,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="21"/>
       <c r="H20" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2790,7 +2890,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="21"/>
       <c r="H21" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2798,7 +2898,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="21"/>
       <c r="H22" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2806,7 +2906,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="21"/>
       <c r="H23" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2814,7 +2914,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="21"/>
       <c r="H24" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2822,7 +2922,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="21"/>
       <c r="H25" s="14">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -2830,21 +2930,85 @@
       </c>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24">
+    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38">
+        <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38">
+        <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38">
+        <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43">
+        <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2855,8 +3019,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2871,9 +3035,9 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +3045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2889,7 +3053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +3061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2905,7 +3069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +3077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2921,7 +3085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2929,7 +3093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,7 +3103,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2947,7 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2955,7 +3119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2963,7 +3127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2971,7 +3135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +3143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2987,7 +3151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2995,7 +3159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3005,7 +3169,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3013,7 +3177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3021,7 +3185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3029,7 +3193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3037,7 +3201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3045,7 +3209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3053,7 +3217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3061,7 +3225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -3071,7 +3235,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -3079,7 +3243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3087,7 +3251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -3095,7 +3259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +3267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3111,7 +3275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -3119,7 +3283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -3127,7 +3291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -3137,7 +3301,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3145,7 +3309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3153,7 +3317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -3161,7 +3325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3169,7 +3333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3177,7 +3341,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -3185,7 +3349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -3193,7 +3357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -3203,7 +3367,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -3211,7 +3375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3219,7 +3383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3227,7 +3391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3235,7 +3399,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -3243,7 +3407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3251,7 +3415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -3259,7 +3423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3280,7 +3444,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3292,7 +3456,7 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -3315,7 +3479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3328,7 +3492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3341,7 +3505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3354,7 +3518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3367,7 +3531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3380,7 +3544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3393,7 +3557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3406,16 +3570,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="38" t="s">
+    <row r="17" spans="9:12" ht="15" thickBot="1"/>
+    <row r="18" spans="9:12" ht="15" thickBot="1">
+      <c r="I18" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="9:12">
       <c r="I19" s="2" t="s">
         <v>119</v>
       </c>
@@ -3428,7 +3592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12">
       <c r="I20" s="5" t="s">
         <v>121</v>
       </c>
@@ -3438,7 +3602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:12" ht="28.9">
       <c r="I21" s="5" t="s">
         <v>123</v>
       </c>
@@ -3448,7 +3612,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:12" ht="28.9">
       <c r="I22" s="5" t="s">
         <v>125</v>
       </c>
@@ -3458,7 +3622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="9:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:12" ht="29.45" thickBot="1">
       <c r="I23" s="8" t="s">
         <v>127</v>
       </c>
@@ -3490,8 +3654,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7f975d79501bf714ad1cc6144fc7ba2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b50e7f0fca8208ebb23c399666042" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <xsd:import namespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
     <xsd:element name="properties">
@@ -3526,73 +3690,69 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="7" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="9" nillable="true" ma:displayName="MediaServiceAutoTags" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:hidden="true" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:hidden="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4560d88b-9459-45c3-8a30-9c03b99f5b18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4560d88b-9459-45c3-8a30-9c03b99f5b18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -3601,7 +3761,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -3620,14 +3780,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e6299094-9969-4aa1-ba76-85cf9469c7b4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6cbc0c5a-d948-46e5-8624-1bad210f77c7">
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e6299094-9969-4aa1-ba76-85cf9469c7b4}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="6cbc0c5a-d948-46e5-8624-1bad210f77c7">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -3648,8 +3806,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3748,39 +3906,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6050C139-82A9-428E-AB65-1289DFE5D558}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregMilburn\Documents\hydroxyproline_assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57A59C2-CCD8-4069-A9EF-94F235296836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F924B8C0-6EAB-445E-BC92-228FA46C2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="14760" yWindow="-16440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tube Weights'!$A$1:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Plate Loading'!$A$1:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>PROJECT</t>
   </si>
@@ -110,292 +111,67 @@
     <t>Aliquot used for dilution (μL)</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>1G</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>6D</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>5F</t>
-  </si>
-  <si>
-    <t>6F</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>6G</t>
-  </si>
-  <si>
-    <t>5H</t>
-  </si>
-  <si>
-    <t>6H</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>7D</t>
-  </si>
-  <si>
-    <t>8D</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>8E</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>7G</t>
-  </si>
-  <si>
-    <t>8G</t>
-  </si>
-  <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t>8H</t>
-  </si>
-  <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>10C</t>
-  </si>
-  <si>
-    <t>9D</t>
-  </si>
-  <si>
-    <t>10D</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>10E</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>10F</t>
-  </si>
-  <si>
-    <t>9G</t>
-  </si>
-  <si>
-    <t>10G</t>
-  </si>
-  <si>
-    <t>9H</t>
-  </si>
-  <si>
-    <t>10H</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>11C</t>
-  </si>
-  <si>
-    <t>12C</t>
-  </si>
-  <si>
-    <t>11D</t>
-  </si>
-  <si>
-    <t>12D</t>
-  </si>
-  <si>
-    <t>11E</t>
-  </si>
-  <si>
-    <t>12E</t>
-  </si>
-  <si>
-    <t>11F</t>
-  </si>
-  <si>
-    <t>12F</t>
-  </si>
-  <si>
-    <t>11G</t>
-  </si>
-  <si>
-    <t>12G</t>
-  </si>
-  <si>
-    <t>11H</t>
-  </si>
-  <si>
-    <t>12H</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>Standard</t>
@@ -456,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +269,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -526,21 +309,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="43">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -938,13 +712,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,22 +873,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -984,13 +888,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -999,50 +906,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,35 +1032,308 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -2371,23 +2626,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="27">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="19">
       <calculatedColumnFormula>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+  <autoFilter ref="A3:M11" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11">
+      <calculatedColumnFormula>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="8">
+      <calculatedColumnFormula>"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="5">
+      <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="2">
+      <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2693,322 +2978,314 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="14" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="13" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="H8" s="14">
+      <c r="A8" s="20"/>
+      <c r="H8" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="H9" s="14">
+      <c r="A9" s="20"/>
+      <c r="H9" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="H10" s="14">
+      <c r="A10" s="20"/>
+      <c r="H10" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="H11" s="14">
+      <c r="A11" s="20"/>
+      <c r="H11" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="H12" s="14">
+      <c r="A12" s="20"/>
+      <c r="H12" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="H13" s="14">
+      <c r="A13" s="20"/>
+      <c r="H13" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="H14" s="14">
+      <c r="A14" s="20"/>
+      <c r="H14" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="H15" s="14">
+      <c r="A15" s="20"/>
+      <c r="H15" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="H16" s="14">
+      <c r="A16" s="20"/>
+      <c r="H16" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="H17" s="14">
+      <c r="A17" s="20"/>
+      <c r="H17" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="H18" s="14">
+      <c r="A18" s="20"/>
+      <c r="H18" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="H19" s="14">
+      <c r="A19" s="20"/>
+      <c r="H19" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="H20" s="14">
+      <c r="A20" s="20"/>
+      <c r="H20" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="H21" s="14">
+      <c r="A21" s="20"/>
+      <c r="H21" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="H22" s="14">
+      <c r="A22" s="20"/>
+      <c r="H22" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="H23" s="14">
+      <c r="A23" s="20"/>
+      <c r="H23" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="H24" s="14">
+      <c r="A24" s="20"/>
+      <c r="H24" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="H25" s="14">
+      <c r="A25" s="20"/>
+      <c r="H25" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39">
+      <c r="A26" s="20"/>
+      <c r="H26" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38">
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="41"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="41"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="41"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3029,410 +3306,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A15ECCC-A17C-459A-BED5-BEB7B47E363B}">
-  <dimension ref="A1:D48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="13" width="10.7109375" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="35"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="G3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H3" s="41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="I3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J3" s="33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="K3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L3" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="M3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="1" t="s">
+      <c r="B4" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 0: 0μg/μL</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="46" t="str">
+        <f t="shared" ref="E4:E11" si="0">"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</f>
+        <v>Sample 1:</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="46" t="str" cm="1">
+        <f t="array" ref="H4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 9:</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="46" t="str" cm="1">
+        <f t="array" ref="K4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 17:</v>
+      </c>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B5" s="63" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 1: 2μg/μL</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 2:</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="42" t="str" cm="1">
+        <f t="array" ref="H5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 10:</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="42" t="str" cm="1">
+        <f t="array" ref="K5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 18:</v>
+      </c>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B6" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 2: 4μg/μL</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 3:</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="42" t="str" cm="1">
+        <f t="array" ref="H6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 11:</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="42" t="str" cm="1">
+        <f t="array" ref="K6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 19:</v>
+      </c>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B7" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 3: 6μg/μL</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 4:</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="42" t="str" cm="1">
+        <f t="array" ref="H7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 12:</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="42" t="str" cm="1">
+        <f t="array" ref="K7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 20:</v>
+      </c>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B8" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 4: 8μg/μL</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 5:</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="42" t="str" cm="1">
+        <f t="array" ref="H8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 13:</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="42" t="str" cm="1">
+        <f t="array" ref="K8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 21:</v>
+      </c>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B9" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 5: 10μg/μL</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 6:</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="42" t="str" cm="1">
+        <f t="array" ref="H9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 14:</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="42" t="str" cm="1">
+        <f t="array" ref="K9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 22:</v>
+      </c>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="B10" s="62" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 6: 12μg/μL</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 7:</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="42" t="str" cm="1">
+        <f t="array" ref="H10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 15:</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="42" t="str" cm="1">
+        <f t="array" ref="K10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 23:</v>
+      </c>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" s="64" t="str">
+        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
+        <v>Standard 7: 14μg/μL</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample 8:</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="43" t="str" cm="1">
+        <f t="array" ref="H11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
+        <v>Sample 16:</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="43" t="str" cm="1">
+        <f t="array" ref="K11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
+        <v>Sample 24:</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3458,25 +3624,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3572,64 +3738,64 @@
     </row>
     <row r="17" spans="9:12" ht="15" thickBot="1"/>
     <row r="18" spans="9:12" ht="15" thickBot="1">
-      <c r="I18" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="I18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="9:12">
-      <c r="I19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="11" t="e" cm="1">
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="10" t="e" cm="1">
         <f t="array" ref="J19">LINEST(G2:G8,B2:B8,FALSE,TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
-        <v>120</v>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
+      <c r="I20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="28.9">
-      <c r="I21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7" t="s">
-        <v>124</v>
+      <c r="I21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="9:12" ht="28.9">
-      <c r="I22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
+      <c r="I22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="9:12" ht="29.45" thickBot="1">
-      <c r="I23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10" t="s">
-        <v>128</v>
+      <c r="I23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3643,6 +3809,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -3653,7 +3828,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7f975d79501bf714ad1cc6144fc7ba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b50e7f0fca8208ebb23c399666042" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -3896,23 +4071,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregMilburn\Documents\hydroxyproline_assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F924B8C0-6EAB-445E-BC92-228FA46C2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECCFFE-6EFC-467E-B34A-3395A0527CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-16440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
@@ -18,38 +18,27 @@
     <sheet name="Standards" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Plate Loading'!$A$1:$M$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tube Weights'!$A$1:$K$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Plate Loading'!$A$1:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -64,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>PROJECT</t>
   </si>
@@ -226,13 +215,198 @@
   </si>
   <si>
     <t>Residdual sum of Squares</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 0: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>Standard 2: 4 μg/μL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -833,11 +1007,112 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -847,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,15 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,14 +1253,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,14 +1301,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,20 +1335,18 @@
   <dxfs count="30">
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1069,10 +1354,8 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -1080,9 +1363,7 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1090,22 +1371,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1113,11 +1390,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
           <color rgb="FF000000"/>
         </right>
         <top style="thin">
@@ -1126,9 +1401,7 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1136,10 +1409,8 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -1147,9 +1418,7 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1157,22 +1426,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1180,11 +1445,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
           <color rgb="FF000000"/>
         </right>
         <top style="thin">
@@ -1193,9 +1456,7 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1203,10 +1464,8 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -1214,9 +1473,7 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1224,22 +1481,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color rgb="FF000000"/>
         </horizontal>
@@ -1369,14 +1622,14 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2626,7 +2879,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="26"/>
     <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="25"/>
@@ -2651,9 +2904,7 @@
   <autoFilter ref="A3:M11" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11">
-      <calculatedColumnFormula>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="8">
@@ -2982,7 +3233,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
@@ -2992,35 +3243,35 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1">
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3071,7 +3322,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="H8" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3079,7 +3330,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1">
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="H9" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3087,7 +3338,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1">
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="H10" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3095,7 +3346,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="H11" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3103,7 +3354,7 @@
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="H12" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3111,7 +3362,7 @@
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="H13" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3119,7 +3370,7 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="H14" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3127,7 +3378,7 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="H15" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3135,7 +3386,7 @@
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="H16" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3143,7 +3394,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="H17" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3151,7 +3402,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="H18" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3159,7 +3410,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="H19" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3167,7 +3418,7 @@
       </c>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="H20" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3175,7 +3426,7 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="H21" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3183,7 +3434,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="H22" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3191,7 +3442,7 @@
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="H23" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3199,7 +3450,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
+    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="H24" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3207,7 +3458,7 @@
       </c>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="H25" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3215,7 +3466,7 @@
       </c>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="H26" s="13">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
@@ -3223,7 +3474,7 @@
       </c>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1">
+    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3239,7 +3490,7 @@
       <c r="J27" s="26"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1">
+    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -3255,7 +3506,7 @@
       <c r="J28" s="26"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1">
+    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3271,7 +3522,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1">
+    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3312,281 +3563,301 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.7109375" style="35" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="13" width="10.7109375" style="32" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="B1" s="56"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 0: 0μg/μL</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="46" t="str">
+      <c r="B4" s="45"/>
+      <c r="C4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E11" si="0">"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</f>
         <v>Sample 1:</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="46" t="str" cm="1">
+      <c r="F4" s="38"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="43" t="str" cm="1">
         <f t="array" ref="H4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 9:</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="46" t="str" cm="1">
+      <c r="I4" s="38"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="43" t="str" cm="1">
         <f t="array" ref="K4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 17:</v>
       </c>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="67"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="63" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 1: 2μg/μL</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="42" t="str">
+      <c r="B5" s="46"/>
+      <c r="C5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 2:</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="42" t="str" cm="1">
+      <c r="F5" s="68"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39" t="str" cm="1">
         <f t="array" ref="H5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 10:</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="42" t="str" cm="1">
+      <c r="I5" s="68"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="39" t="str" cm="1">
         <f t="array" ref="K5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 18:</v>
       </c>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="L5" s="68"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 2: 4μg/μL</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="42" t="str">
+      <c r="B6" s="45"/>
+      <c r="C6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 3:</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="42" t="str" cm="1">
+      <c r="F6" s="68"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="39" t="str" cm="1">
         <f t="array" ref="H6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 11:</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42" t="str" cm="1">
+      <c r="I6" s="68"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="39" t="str" cm="1">
         <f t="array" ref="K6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 19:</v>
       </c>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 3: 6μg/μL</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42" t="str">
+      <c r="B7" s="45"/>
+      <c r="C7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 4:</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="42" t="str" cm="1">
+      <c r="F7" s="68"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="39" t="str" cm="1">
         <f t="array" ref="H7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 12:</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="42" t="str" cm="1">
+      <c r="I7" s="68"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="39" t="str" cm="1">
         <f t="array" ref="K7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 20:</v>
       </c>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="L7" s="68"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 4: 8μg/μL</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="42" t="str">
+      <c r="B8" s="45"/>
+      <c r="C8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 5:</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="42" t="str" cm="1">
+      <c r="F8" s="68"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="39" t="str" cm="1">
         <f t="array" ref="H8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 13:</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42" t="str" cm="1">
+      <c r="I8" s="68"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="39" t="str" cm="1">
         <f t="array" ref="K8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 21:</v>
       </c>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="L8" s="68"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 5: 10μg/μL</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="42" t="str">
+      <c r="B9" s="45"/>
+      <c r="C9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 6:</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="42" t="str" cm="1">
+      <c r="F9" s="68"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="39" t="str" cm="1">
         <f t="array" ref="H9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 14:</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42" t="str" cm="1">
+      <c r="I9" s="68"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="39" t="str" cm="1">
         <f t="array" ref="K9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 22:</v>
       </c>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="L9" s="68"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="62" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 6: 12μg/μL</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="42" t="str">
+      <c r="B10" s="45"/>
+      <c r="C10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Sample 7:</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="42" t="str" cm="1">
+      <c r="F10" s="68"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="39" t="str" cm="1">
         <f t="array" ref="H10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 15:</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42" t="str" cm="1">
+      <c r="I10" s="68"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="39" t="str" cm="1">
         <f t="array" ref="K10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 23:</v>
       </c>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="L10" s="68"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="64" t="str">
-        <f>LEFT(Table1[[#This Row],[10]]) &amp; "tandard" &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[10]], FIND(":", Table1[[#This Row],[10]]) - 1), FIND(" ", Table1[[#This Row],[10]]) + 1, LEN(Table1[[#This Row],[10]]))) - 17, "0;-0") &amp; ": " &amp; TEXT(2 * ROW() - 8, "0;-0") &amp; "μg/μL"</f>
-        <v>Standard 7: 14μg/μL</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="43" t="str">
+      <c r="B11" s="47"/>
+      <c r="C11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Sample 8:</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="43" t="str" cm="1">
+      <c r="F11" s="44"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="40" t="str" cm="1">
         <f t="array" ref="H11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 16:</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43" t="str" cm="1">
+      <c r="I11" s="37"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="40" t="str" cm="1">
         <f t="array" ref="K11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 24:</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="45"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3595,9 +3866,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3610,7 +3881,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3622,7 +3893,7 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3645,7 +3916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3658,7 +3929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3671,7 +3942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3684,7 +3955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3697,7 +3968,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3710,7 +3981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3723,7 +3994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3736,16 +4007,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="15" thickBot="1"/>
-    <row r="18" spans="9:12" ht="15" thickBot="1">
-      <c r="I18" s="59" t="s">
+    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-    </row>
-    <row r="19" spans="9:12">
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3758,7 +4029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="9:12">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +4039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="9:12" ht="28.9">
+    <row r="21" spans="9:12" ht="30" x14ac:dyDescent="0.25">
       <c r="I21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3778,7 +4049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="9:12" ht="28.9">
+    <row r="22" spans="9:12" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3788,7 +4059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="9:12" ht="29.45" thickBot="1">
+    <row r="23" spans="9:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="7" t="s">
         <v>52</v>
       </c>
@@ -3809,26 +4080,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7f975d79501bf714ad1cc6144fc7ba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b50e7f0fca8208ebb23c399666042" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -4071,14 +4322,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECCFFE-6EFC-467E-B34A-3395A0527CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC2110-09A9-42BA-BF22-B3669E76D9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Plate Loading'!$A$1:$M$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tube Weights'!$A$1:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tube Weights'!$A$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -406,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,14 +418,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,6 +441,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1122,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1166,57 +1178,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,6 +1229,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,15 +1269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,32 +1283,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,302 +1370,18 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1642,11 +1394,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1655,6 +1407,422 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2879,49 +3047,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="29">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="5">
       <calculatedColumnFormula>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A3:M11" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="21">
       <calculatedColumnFormula>"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="15">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3229,314 +3397,512 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
+    <col min="7" max="9" width="16" style="13" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" style="13" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="H8" s="13">
+      <c r="A8" s="69"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="H9" s="13">
+      <c r="A9" s="69"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="H10" s="13">
+      <c r="A10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="H11" s="13">
+      <c r="A11" s="69"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="H12" s="13">
+      <c r="A12" s="69"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="H13" s="13">
+      <c r="A13" s="69"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="H14" s="13">
+      <c r="A14" s="69"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="H15" s="13">
+      <c r="A15" s="69"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="H16" s="13">
+      <c r="A16" s="69"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="H17" s="13">
+      <c r="A17" s="69"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="H18" s="13">
+      <c r="A18" s="69"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="H19" s="13">
+      <c r="A19" s="69"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="70"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="H20" s="13">
+      <c r="A20" s="69"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="H21" s="13">
+      <c r="A21" s="69"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="H22" s="13">
+      <c r="A22" s="69"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="H23" s="13">
+      <c r="A23" s="69"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="H24" s="13">
+      <c r="A24" s="69"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="H25" s="13">
+      <c r="A25" s="69"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="H26" s="13">
+      <c r="A26" s="69"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="28"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="28"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="28"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3545,10 +3911,10 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3562,302 +3928,302 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.7109375" style="32" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="13" width="10.7109375" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="43" t="str">
+      <c r="D4" s="20"/>
+      <c r="E4" s="27" t="str">
         <f t="shared" ref="E4:E11" si="0">"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</f>
         <v>Sample 1:</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="43" t="str" cm="1">
+      <c r="F4" s="22"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="27" t="str" cm="1">
         <f t="array" ref="H4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 9:</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="43" t="str" cm="1">
+      <c r="I4" s="22"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="27" t="str" cm="1">
         <f t="array" ref="K4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 17:</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="str">
+      <c r="D5" s="19"/>
+      <c r="E5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 2:</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="39" t="str" cm="1">
+      <c r="F5" s="40"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="str" cm="1">
         <f t="array" ref="H5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 10:</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39" t="str" cm="1">
+      <c r="I5" s="40"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="23" t="str" cm="1">
         <f t="array" ref="K5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 18:</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39" t="str">
+      <c r="D6" s="20"/>
+      <c r="E6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 3:</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="39" t="str" cm="1">
+      <c r="F6" s="40"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="str" cm="1">
         <f t="array" ref="H6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 11:</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="39" t="str" cm="1">
+      <c r="I6" s="40"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23" t="str" cm="1">
         <f t="array" ref="K6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 19:</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="39" t="str">
+      <c r="D7" s="20"/>
+      <c r="E7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 4:</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="39" t="str" cm="1">
+      <c r="F7" s="40"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="str" cm="1">
         <f t="array" ref="H7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 12:</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="39" t="str" cm="1">
+      <c r="I7" s="40"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23" t="str" cm="1">
         <f t="array" ref="K7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 20:</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="39" t="str">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 5:</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="39" t="str" cm="1">
+      <c r="F8" s="40"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23" t="str" cm="1">
         <f t="array" ref="H8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 13:</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="39" t="str" cm="1">
+      <c r="I8" s="40"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23" t="str" cm="1">
         <f t="array" ref="K8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 21:</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="39" t="str">
+      <c r="D9" s="20"/>
+      <c r="E9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 6:</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39" t="str" cm="1">
+      <c r="F9" s="40"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="str" cm="1">
         <f t="array" ref="H9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 14:</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="39" t="str" cm="1">
+      <c r="I9" s="40"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23" t="str" cm="1">
         <f t="array" ref="K9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 22:</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="39" t="str">
+      <c r="D10" s="20"/>
+      <c r="E10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sample 7:</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="39" t="str" cm="1">
+      <c r="F10" s="40"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="str" cm="1">
         <f t="array" ref="H10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 15:</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="39" t="str" cm="1">
+      <c r="I10" s="40"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23" t="str" cm="1">
         <f t="array" ref="K10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 23:</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="40" t="str">
+      <c r="D11" s="21"/>
+      <c r="E11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Sample 8:</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40" t="str" cm="1">
+      <c r="F11" s="28"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24" t="str" cm="1">
         <f t="array" ref="H11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 16:</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="40" t="str" cm="1">
+      <c r="I11" s="21"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24" t="str" cm="1">
         <f t="array" ref="K11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 24:</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="42"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4009,12 +4375,12 @@
     </row>
     <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
@@ -4080,6 +4446,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7f975d79501bf714ad1cc6144fc7ba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b50e7f0fca8208ebb23c399666042" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -4322,27 +4708,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4359,23 +4750,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -1,44 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC2110-09A9-42BA-BF22-B3669E76D9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{7EECCFFE-6EFC-467E-B34A-3395A0527CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96293A1-CCBE-4772-90E3-D36AA40DD4A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tube Weights" sheetId="1" r:id="rId1"/>
-    <sheet name="Plate Loading" sheetId="4" r:id="rId2"/>
-    <sheet name="Standards" sheetId="2" r:id="rId3"/>
+    <sheet name="Tube_Weights" sheetId="1" r:id="rId1"/>
+    <sheet name="Plate_Loading" sheetId="4" r:id="rId2"/>
+    <sheet name="Abs_data" sheetId="5" r:id="rId3"/>
+    <sheet name="Standards" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Plate Loading'!$A$1:$M$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tube Weights'!$A$1:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Plate_Loading!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tube_Weights!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +73,7 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>PLATE ID/#</t>
+    <t>PLATE ID#</t>
   </si>
   <si>
     <t>DATE</t>
@@ -140,81 +152,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Mass of Hyp per well</t>
-  </si>
-  <si>
-    <t>Abs_1</t>
-  </si>
-  <si>
-    <t>Abs_2</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Corrected Abs</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>StdErr Slope</t>
-  </si>
-  <si>
-    <t>StdErr Intercept</t>
-  </si>
-  <si>
-    <t>R^2</t>
-  </si>
-  <si>
-    <t>StdErr for Y estimate</t>
-  </si>
-  <si>
-    <t>F Stat</t>
-  </si>
-  <si>
-    <t>Degrees of freedom</t>
-  </si>
-  <si>
-    <t>Regression sum of squares</t>
-  </si>
-  <si>
-    <t>Residdual sum of Squares</t>
   </si>
   <si>
     <r>
@@ -225,9 +162,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>0</t>
     </r>
@@ -235,12 +170,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> μg/μL</t>
     </r>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <r>
@@ -251,9 +187,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
@@ -261,15 +195,138 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> μg/μL</t>
     </r>
   </si>
   <si>
-    <t>Standard 2: 4 μg/μL</t>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μg/μL</t>
+    </r>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <r>
@@ -280,9 +337,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>14</t>
     </r>
@@ -290,123 +345,71 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> μg/μL</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Standard 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> μg/μL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Standard 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> μg/μL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Standard 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> μg/μL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Standard 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> μg/μL</t>
-    </r>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Mass of Hyp per well</t>
+  </si>
+  <si>
+    <t>Abs_1</t>
+  </si>
+  <si>
+    <t>Abs_2</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Corrected Abs</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>StdErr Slope</t>
+  </si>
+  <si>
+    <t>StdErr Intercept</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>StdErr for Y estimate</t>
+  </si>
+  <si>
+    <t>F Stat</t>
+  </si>
+  <si>
+    <t>Degrees of freedom</t>
+  </si>
+  <si>
+    <t>Regression sum of squares</t>
+  </si>
+  <si>
+    <t>Residdual sum of Squares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -438,29 +434,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1134,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,109 +1171,172 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1282,87 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,15 +1355,386 @@
   <dxfs count="30">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
       </font>
       <alignment vertical="center"/>
     </dxf>
@@ -1394,11 +1749,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1407,422 +1761,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3047,49 +2985,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="27">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="19">
       <calculatedColumnFormula>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
   <autoFilter ref="A3:M11" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="8">
       <calculatedColumnFormula>"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="5">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="2">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3397,512 +3335,317 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
-    <col min="7" max="9" width="16" style="13" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="12.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="42" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="42" customWidth="1"/>
+    <col min="7" max="9" width="16" style="42" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="53"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="G2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="6" spans="1:11" s="47" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="H8" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="70"/>
-    </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53">
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="H9" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="70"/>
-    </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53">
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="H10" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53">
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="H11" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="70"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53">
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="H12" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="70"/>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53">
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="H13" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="70"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53">
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="H14" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="70"/>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53">
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="H15" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53">
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="H16" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="70"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53">
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="H17" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="70"/>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53">
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="H18" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="70"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53">
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="H19" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="70"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53">
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="H20" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="70"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53">
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="H21" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="70"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53">
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="H22" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="70"/>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53">
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="H23" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="70"/>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53">
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="H24" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="70"/>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53">
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="H25" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="70"/>
-    </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53">
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="H26" s="42">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="70"/>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72">
+      <c r="K26" s="52"/>
+    </row>
+    <row r="27" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72">
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+    </row>
+    <row r="28" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75">
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+    </row>
+    <row r="30" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3911,10 +3654,10 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3929,308 +3672,313 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="10.7109375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="67"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="27" t="str">
+      <c r="B4" s="23"/>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="str">
         <f t="shared" ref="E4:E11" si="0">"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</f>
         <v>Sample 1:</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="27" t="str" cm="1">
+      <c r="F4" s="37"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25" t="str" cm="1">
         <f t="array" ref="H4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 9:</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="27" t="str" cm="1">
+      <c r="I4" s="37"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25" t="str" cm="1">
         <f t="array" ref="K4">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 17:</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23" t="str">
+      <c r="L4" s="37"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 2:</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23" t="str" cm="1">
+      <c r="F5" s="38"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="str" cm="1">
         <f t="array" ref="H5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 10:</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="23" t="str" cm="1">
+      <c r="I5" s="38"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29" t="str" cm="1">
         <f t="array" ref="K5">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 18:</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23" t="str">
+      <c r="L5" s="38"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 3:</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23" t="str" cm="1">
+      <c r="F6" s="38"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="str" cm="1">
         <f t="array" ref="H6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 11:</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="23" t="str" cm="1">
+      <c r="I6" s="38"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29" t="str" cm="1">
         <f t="array" ref="K6">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 19:</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23" t="str">
+      <c r="L6" s="38"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 4:</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23" t="str" cm="1">
+      <c r="F7" s="38"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="str" cm="1">
         <f t="array" ref="H7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 12:</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="23" t="str" cm="1">
+      <c r="I7" s="38"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29" t="str" cm="1">
         <f t="array" ref="K7">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 20:</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="str">
+      <c r="L7" s="38"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 5:</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23" t="str" cm="1">
+      <c r="F8" s="38"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29" t="str" cm="1">
         <f t="array" ref="H8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 13:</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23" t="str" cm="1">
+      <c r="I8" s="38"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29" t="str" cm="1">
         <f t="array" ref="K8">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 21:</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23" t="str">
+      <c r="L8" s="38"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 6:</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="str" cm="1">
+      <c r="F9" s="38"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="str" cm="1">
         <f t="array" ref="H9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 14:</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23" t="str" cm="1">
+      <c r="I9" s="38"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29" t="str" cm="1">
         <f t="array" ref="K9">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 22:</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23" t="str">
+      <c r="L9" s="38"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Sample 7:</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23" t="str" cm="1">
+      <c r="F10" s="38"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="str" cm="1">
         <f t="array" ref="H10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 15:</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23" t="str" cm="1">
+      <c r="I10" s="38"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29" t="str" cm="1">
         <f t="array" ref="K10">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 23:</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24" t="str">
+      <c r="L10" s="38"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Sample 8:</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24" t="str" cm="1">
+      <c r="F11" s="39"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35" t="str" cm="1">
         <f t="array" ref="H11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</f>
         <v>Sample 16:</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24" t="str" cm="1">
+      <c r="I11" s="40"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35" t="str" cm="1">
         <f t="array" ref="K11">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</f>
         <v>Sample 24:</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
@@ -4240,6 +3988,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB0E7E-C83A-475A-8028-A85379AC7CA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6DF27-FE65-4937-98DE-CEDEE4692BBF}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -4247,7 +4007,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4259,30 +4019,30 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4295,7 +4055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4308,7 +4068,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4321,7 +4081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4334,7 +4094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4347,7 +4107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4360,7 +4120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4373,18 +4133,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" ht="15.75" thickBot="1"/>
+    <row r="18" spans="9:12" ht="15.75" thickBot="1">
+      <c r="I18" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="9:12">
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J19" s="10" t="e" cm="1">
         <f t="array" ref="J19">LINEST(G2:G8,B2:B8,FALSE,TRUE)</f>
@@ -4392,47 +4152,47 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12">
       <c r="I20" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" ht="30">
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" ht="30">
       <c r="I22" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" ht="45.75" thickBot="1">
       <c r="I23" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4466,8 +4226,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7f975d79501bf714ad1cc6144fc7ba2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b50e7f0fca8208ebb23c399666042" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc1787fcac4be083c11e6f0029b23b65">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8c1bc71b3e1a5c5643575cdb9067cc0" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <xsd:import namespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
     <xsd:element name="properties">
@@ -4492,6 +4252,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4567,6 +4328,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4709,45 +4475,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E489BC-EAAD-4D09-85CD-1B24AED0526A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F950527-C670-4300-9794-0A96F43C1C8E}"/>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/HYP_assay_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{7EECCFFE-6EFC-467E-B34A-3395A0527CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96293A1-CCBE-4772-90E3-D36AA40DD4A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB1896F-4C2B-48A2-99F4-233C163AE2F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{54AA1C93-AD80-480E-8AEB-0DD48D3C7829}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube_Weights" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -65,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>PROJECT</t>
   </si>
@@ -92,9 +81,6 @@
   </si>
   <si>
     <t>Tissue Chunk Weight (g)</t>
-  </si>
-  <si>
-    <t>Tube with Tissue Chunk Weight (g)</t>
   </si>
   <si>
     <t>Ground Tissue Tube Weight (g)</t>
@@ -409,7 +395,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,12 +1336,52 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1657,37 +1686,6 @@
         <name val="Arial"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1726,17 +1724,17 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <name val="Arial"/>
       </font>
       <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2985,49 +2983,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:K30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="27">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A7620BFD-706A-4748-9BF9-8356A40748EA}" name="Tube with Tissue Chunk Weight (g)" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{245AC09C-3055-4589-B772-D1646E7B2EDC}" name="Table2" displayName="Table2" ref="A6:J30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3896E306-5745-4EEF-A07E-BDD2BB46BA6D}" name="Hashcode" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{46FB0473-81B8-4219-A78B-D6C16098E56B}" name="Region" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{EEA09F12-E1A0-4D30-BFDD-510C233A1755}" name="Specimen #" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A443A580-F8C4-4AA7-AB27-96EF879208D3}" name="Empty Tube Weight (g)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A266A8BF-5599-48A1-89C8-AC21F0149F66}" name="Tissue Chunk Weight (g)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5EF413C1-CB53-4E82-8315-D51117CC0562}" name="Ground Tissue Tube Weight (g)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F84F6D29-07A7-46CF-B58C-0ECE66D9DBF4}" name="Ground Tissue Weight (g)" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{18A032BE-4B3F-480D-BCB2-2CBE17696C92}" name="Volume of HCl added (μL)" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{380F0C02-FB8D-4032-AE7E-C1EC6F257444}" name="Volume of NaOH added (μL)" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7817F4DD-FBAC-4E54-B200-E96225C25550}" name="Aliquot used for dilution (μL)" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}" name="Table1" displayName="Table1" ref="A3:M11" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="17">
   <autoFilter ref="A3:M11" xr:uid="{836623A7-2934-49E3-B9B2-896C1C8EBE7E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{E345FEC6-D4EA-486B-A789-17E454B71A73}" name="Column1" totalsRowLabel="Total" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E6CFEF03-DDBF-40DB-AB85-14E215474AE7}" name="1" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9D5F6CA5-28D2-47CE-8EA7-EC6ED8F99457}" name="2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F9A7F55B-B9F7-4142-A5CB-4723A2CADE84}" name="3" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{51A60D0A-8805-48C8-9E1C-62ABC3065E89}" name="4" dataDxfId="12">
       <calculatedColumnFormula>"Sample " &amp; TEXT(ROW() - 3, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{F1A254C4-E527-4E09-956B-EFEEFAB5FE12}" name="5" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B1098EF5-99D0-4FE7-8A48-970325CE25CE}" name="6" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{28FB43CE-FCFE-4518-8E81-636EE7BB5C19}" name="7" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 8, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{E9CA7E80-2C3F-403A-B864-AF53828E506F}" name="8" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E498B3F4-548D-47BC-B425-89E75E7C0DE1}" name="9" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{93F61158-2551-4167-BC0B-F152076FE7AD}" name="10" dataDxfId="6">
       <calculatedColumnFormula array="1">INDEX(_xlfn.TEXTSPLIT(Table1[[#This Row],[4]], " "), 1) &amp; " " &amp; TEXT(VALUE(MID(LEFT(Table1[[#This Row],[4]], FIND(":", Table1[[#This Row],[4]]) - 1), FIND(" ", Table1[[#This Row],[4]]) + 1, LEN(Table1[[#This Row],[4]]))) + 16, "0;-0") &amp; ":"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{D7B84092-445B-4320-A286-EC4A423AA5FC}" name="11" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{B90807F9-2E0D-4F55-B548-8B913F13C6E7}" name="12" totalsRowFunction="count" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3333,26 +3330,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="42" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="42" customWidth="1"/>
-    <col min="7" max="9" width="16" style="42" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3364,7 @@
       <c r="I1" s="62"/>
       <c r="J1" s="63"/>
     </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3378,8 @@
       <c r="I2" s="65"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" s="47" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
@@ -3408,244 +3407,293 @@
       <c r="I6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
+      <c r="H7" s="49"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
-      <c r="H8" s="42">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
-      <c r="H9" s="42">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K9" s="52"/>
-    </row>
-    <row r="10" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
-      <c r="H10" s="42">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K10" s="52"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="H11" s="42">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
-      <c r="H12" s="42">
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K12" s="52"/>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
-      <c r="H13" s="42">
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K13" s="52"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
-      <c r="H14" s="42">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
-      <c r="H15" s="42">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K15" s="52"/>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
-      <c r="H16" s="42">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
-      <c r="H17" s="42">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
-      <c r="H18" s="42">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="52"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
-      <c r="H19" s="42">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="H20" s="42">
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
-      <c r="H21" s="42">
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
-      <c r="H22" s="42">
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K22" s="52"/>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
-      <c r="H23" s="42">
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K23" s="52"/>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
-      <c r="H24" s="42">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
-      <c r="H25" s="42">
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
-      <c r="H26" s="42">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
-      <c r="K26" s="52"/>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
+      <c r="H27" s="54"/>
       <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
+      <c r="H28" s="54"/>
       <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54">
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
+      <c r="H29" s="54"/>
       <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1">
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57">
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74">
         <f>Table2[[#This Row],[Ground Tissue Tube Weight (g)]]-Table2[[#This Row],[Empty Tube Weight (g)]]</f>
         <v>0</v>
       </c>
+      <c r="H30" s="57"/>
       <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3675,7 +3723,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.7109375" style="13" customWidth="1"/>
@@ -3686,7 +3734,7 @@
     <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3745,7 @@
       <c r="F1" s="59"/>
       <c r="G1" s="60"/>
     </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -3708,54 +3756,54 @@
       <c r="F2" s="62"/>
       <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25" t="str">
@@ -3777,13 +3825,13 @@
       <c r="L4" s="37"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1">
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="29" t="str">
@@ -3805,13 +3853,13 @@
       <c r="L5" s="38"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1">
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="29" t="str">
@@ -3833,13 +3881,13 @@
       <c r="L6" s="38"/>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="29" t="str">
@@ -3861,13 +3909,13 @@
       <c r="L7" s="38"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="29" t="str">
@@ -3889,13 +3937,13 @@
       <c r="L8" s="38"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="29" t="str">
@@ -3917,13 +3965,13 @@
       <c r="L9" s="38"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="29" t="str">
@@ -3945,13 +3993,13 @@
       <c r="L10" s="38"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="35" t="str">
@@ -3993,7 +4041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4007,7 +4055,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4019,30 +4067,30 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4055,7 +4103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4068,7 +4116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4081,7 +4129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4094,7 +4142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4107,7 +4155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4120,7 +4168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4133,18 +4181,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="15.75" thickBot="1"/>
-    <row r="18" spans="9:12" ht="15.75" thickBot="1">
+    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="9:12">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="10" t="e" cm="1">
         <f t="array" ref="J19">LINEST(G2:G8,B2:B8,FALSE,TRUE)</f>
@@ -4152,47 +4200,47 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12">
-      <c r="I20" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12" ht="30">
-      <c r="I21" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" ht="30">
-      <c r="I22" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="7" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" ht="45.75" thickBot="1">
-      <c r="I23" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4206,26 +4254,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc1787fcac4be083c11e6f0029b23b65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8c1bc71b3e1a5c5643575cdb9067cc0" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -4474,14 +4502,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F950527-C670-4300-9794-0A96F43C1C8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE364BC3-E71F-44D9-82D3-558CC9E09DBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F950527-C670-4300-9794-0A96F43C1C8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381D00F1-752C-4EC5-B907-42BC8A711773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>